--- a/server/reports/selling-your-car-for-scrap.xlsx
+++ b/server/reports/selling-your-car-for-scrap.xlsx
@@ -14161,39 +14161,4124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PAA</v>
+      </c>
+      <c r="B1" t="str">
+        <v>MSV</v>
+      </c>
+      <c r="C1" t="str">
+        <v>URL That Owns It</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Ranking Text</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Header</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Repeats</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>What parts on a car are worth money to scrap?</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>https://sellmax.com/blog/scrap-a-car-for-the-most-money/</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Most Valuable Parts on a Car to Scrap.</v>
+      </c>
+      <c r="E2" t="str">
+        <v>What parts on a car are worth money to scrap?</v>
+      </c>
+      <c r="F2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>How much is a scrap car worth in Ontario?</v>
+      </c>
+      <c r="B3" t="str">
+        <v>10</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://autoheaven.ca/how-to-scrap-a-car-in-ontario/</v>
+      </c>
+      <c r="D3" t="str">
+        <v>A scrap vehicle in Ontario can be worth anywhere from $100 and up to $10,000 depending on what can be salvaged and re-used from that particular vehicle. Some vehicles are purchased strictly for their bulk weight per tonne at current market rates, and others will get assessed based on parts resale value.</v>
+      </c>
+      <c r="E3" t="str">
+        <v>How much is a scrap car worth in Ontario?</v>
+      </c>
+      <c r="F3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>How much is my wrecked car worth?</v>
+      </c>
+      <c r="B4" t="str">
+        <v>70</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://www.cashforcars.com/blog/what-is-the-salvage-value-of-my-car/</v>
+      </c>
+      <c r="D4" t="str">
+        <v>The percentage can vary depending on the insurance company but, it is typically 75 % of market value. Multiply the car's current market value determined earlier by 0.25 (1.00 minus 0.75) to find the salvage value of your car.</v>
+      </c>
+      <c r="E4" t="str">
+        <v>How much is my wrecked car worth?</v>
+      </c>
+      <c r="F4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>How much is scrap car per ton UK?</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://nationalscrapcar.co.uk/prices/scrap-value/</v>
+      </c>
+      <c r="E5" t="str">
+        <v>How much is scrap car per ton UK?</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>What is worth the most at a scrap yard?</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://langleyrecyclingkc.com/most-profitable-items-to-scrap/</v>
+      </c>
+      <c r="D6" t="str">
+        <v>What Are The Most Valuable Things To Scrap?</v>
+      </c>
+      <c r="E6" t="str">
+        <v>What is worth the most at a scrap yard?</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>How much is a car worth for scrap UK?</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>https://www.car.co.uk/media/blogs/scrapping-your-car/how-much-is-a-scrap-car-worth</v>
+      </c>
+      <c r="D7" t="str">
+        <v>If you've decided to dispose of your vehicle, you might be asking how much is a scrap car worth? Average payments for scrapped vehicles vary from £150 to £300 but there are several deciding factors that can affect how much you receive.</v>
+      </c>
+      <c r="E7" t="str">
+        <v>How much is a car worth for scrap UK?</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Is it better to scrap or sell a car?</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://www.mccluskeyautomotive.com/sell-your-car-instead-of-calling-a-junkyard-heres-why/</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Unless your car is a complete pile of junk, there is no reason to sell it to a junkyard. Even if it's rusty and the engine and transmission are messed up, you can still make some decent money off it. If that's the case, part it out instead. You will make more money doing that then you would selling it to a junkyard.</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Is it better to scrap or sell a car?</v>
+      </c>
+      <c r="F8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>How much is the scrap value for car India?</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://www.bankbazaar.com/insurance/motor-insurance-guide/rto-rules-for-car-scrapping-in-india.html</v>
+      </c>
+      <c r="D9" t="str">
+        <v>The current rate is an average of Rs. 15 per kg for metal parts. If the car is in good working condition, the scrap dealer will sell the spare parts of the vehicle.</v>
+      </c>
+      <c r="E9" t="str">
+        <v>How much is the scrap value for car India?</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>How much is the metal of a car worth?</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/</v>
+      </c>
+      <c r="D10" t="str">
+        <v>According to current scrap prices as of September 2021, the value of scrap steel is $208 per ton. That equates to roughly $0.10 per pound. Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound.Feb 2, 2022</v>
+      </c>
+      <c r="E10" t="str">
+        <v>How much is the metal of a car worth?</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>What are the latest scrap metal prices?</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://www.scrapmetalbuyers.com/current-prices</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Current Prices</v>
+      </c>
+      <c r="E11" t="str">
+        <v>What are the latest scrap metal prices?</v>
+      </c>
+      <c r="F11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>What are junk cars worth?</v>
+      </c>
+      <c r="B12" t="str">
+        <v>40</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://www.cashautosalvage.com/going-rate-junk-cars/</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Current junk car prices in 2022 range from $50 and $15,000, but heavily depend on multiple factors. In most cases, the average price for junk vehicles falls within the $100 – $500 range. In fact, we find it very common for people to look for buyers that will junk a car for $500.Jan 6, 2022</v>
+      </c>
+      <c r="E12" t="str">
+        <v>What are junk cars worth?</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>How is car scrap value calculated?</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://www.cardekho.com/india-car-news/herersquos-how-much-you-can-save-by-scrapping-your-old-car-and-buying-a-new-one-26903.htm</v>
+      </c>
+      <c r="D13" t="str">
+        <v>(1) The scrap value of the old vehicle, which will be approximately 4-6 percent of the ex-showroom price of a new vehicle, will be given by the scrapping centre. (2) The manufacturer of your next purchase is also advised to offer a discount of 5 percent on the ex-showroom price against the scrapping certificate.Mar 19, 2021</v>
+      </c>
+      <c r="E13" t="str">
+        <v>How is car scrap value calculated?</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>How much do you get for scrapping a car UK?</v>
+      </c>
+      <c r="B14" t="str">
+        <v>20</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://www.car.co.uk/media/blogs/scrapping-your-car/how-much-is-a-scrap-car-worth</v>
+      </c>
+      <c r="D14" t="str">
+        <v>If you've decided to dispose of your vehicle, you might be asking how much is a scrap car worth? Average payments for scrapped vehicles vary from £150 to £300 but there are several deciding factors that can affect how much you receive.</v>
+      </c>
+      <c r="E14" t="str">
+        <v>How much do you get for scrapping a car UK?</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Will scrap prices go up in 2022?</v>
+      </c>
+      <c r="B15" t="str">
+        <v>20</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://langleyrecyclingkc.com/will-scrap-metal-prices-go-up-in-2022/</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Are Scrap Metal Prices Going Up? As scrap metal prices continue to be at a high, including all types from primary base metals to precious metals, they will level out in 2022.</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Will scrap prices go up in 2022?</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>What should I remove from my car before I scrap it?</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://www.junkcartraders.com/blog/things-to-remove-before-junking-your-car/</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Especially valuable could be its motor, alternator, battery (even if dead), wheels, radio, GPS and even its gasoline, especially if the gas tank is anywhere near full. However, if you remove its wheels due to their value, make sure to replace them with ones that will at least allow the car to be towed to the junk yard.Sep 29, 2017</v>
+      </c>
+      <c r="E16" t="str">
+        <v>What should I remove from my car before I scrap it?</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>What are steel prices right now?</v>
+      </c>
+      <c r="B17" t="str">
+        <v>40</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://iscrapapp.com/prices/</v>
+      </c>
+      <c r="E17" t="str">
+        <v>What are steel prices right now?</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>What are current scrap metal prices in Indiana?</v>
+      </c>
+      <c r="B18" t="str">
+        <v>30</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://merrillvillemetalrecycling.com/sell-your-scrap-metal/current-scrap-metal-prices/</v>
+      </c>
+      <c r="E18" t="str">
+        <v>What are current scrap metal prices in Indiana?</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Are scrap prices going up in 2022?</v>
+      </c>
+      <c r="B19" t="str">
+        <v>20</v>
+      </c>
+      <c r="C19" t="str">
+        <v>https://langleyrecyclingkc.com/will-scrap-metal-prices-go-up-in-2022/</v>
+      </c>
+      <c r="D19" t="str">
+        <v>To sum it up, scrap metal prices are not expected to increase greatly in 2022, but again it depends on the metals in question. Scrap metal prices are at an all-time high right now, and the prediction is that with increased production, prices will move back towards their averages by the middle of 2022.</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Are scrap prices going up in 2022?</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Whats the most you can get for a junk car?</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/whats-your-junk-car-worth/</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Junk yards pay around $250 to $500 cash for junk cars. Prices may vary as scrap metal prices change. There are also many places that buy junk cars, so make sure you choose one that aligns with your needs, and your expectations.</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Whats the most you can get for a junk car?</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>How do you determine the salvage value of a car?</v>
+      </c>
+      <c r="B21" t="str">
+        <v>30</v>
+      </c>
+      <c r="C21" t="str">
+        <v>https://www.salvage-king.com/what-is-the-salvage-value-of-my-car/</v>
+      </c>
+      <c r="D21" t="str">
+        <v>The actual math for determining salvage car prices is straightforward. Like regular used cars, depreciation will proceed at a predictable rate for the lifetime of the vehicle. Multiply the car's current market value decided earlier by 0.25, meaning 1.00 minus 0.75, to find its salvage value.Mar 31, 2021</v>
+      </c>
+      <c r="E21" t="str">
+        <v>How do you determine the salvage value of a car?</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>How do you junk a car in California?</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="str">
+        <v>https://www.dmv.ca.gov/portal/handbook/vehicle-industry-registration-procedures-manual-2/salvage-nonrepairable-junk-vehicles/junking-a-vehicle-individual/</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Prior to dismantling a vehicle, the vehicle owner must submit an application to DMV to record the vehicle as “Junk.” When an owner dismantles a vehicle prior to doing this, the owner is subject to an investigative service fee. The following must be submitted: The evidence of ownership for the vehicle.</v>
+      </c>
+      <c r="E22" t="str">
+        <v>How do you junk a car in California?</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Can you scrap a car without a title in South Carolina?</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="str">
+        <v>https://www.laurensautosalvage.com/junk_my_car/junk_my_car.htm</v>
+      </c>
+      <c r="D23" t="str">
+        <v>The only way to salvage a late model vehicle newer than 12 model years old without a title is to get permission from your local County Sherriff Department.</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Can you scrap a car without a title in South Carolina?</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>How do you calculate scrap price?</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://www.deskera.com/blog/scrap-value/</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Scrap value in Insurance Industry</v>
+      </c>
+      <c r="E24" t="str">
+        <v>How do you calculate scrap price?</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>What scrap pays the most?</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://langleyrecyclingkc.com/most-profitable-items-to-scrap/</v>
+      </c>
+      <c r="D25" t="str">
+        <v>What Are The Most Valuable Things To Scrap?</v>
+      </c>
+      <c r="E25" t="str">
+        <v>What scrap pays the most?</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>How much is scrap cars worth in Australia?</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="str">
+        <v>https://www.swiftcashforcars.com.au/blog/how-much-do-you-get-for-scrapping-a-car-in-australia/</v>
+      </c>
+      <c r="D26" t="str">
+        <v>When scrapping your car in Australia, you can expect to get $200 – $300 for smaller cars, $250 – $400 for sedans, and $450 – $600 for heavier vehicles such as trucks and SUV's currently in May 2021. The price you will get depends on the weight of recyclable metals in your car.</v>
+      </c>
+      <c r="E26" t="str">
+        <v>How much is scrap cars worth in Australia?</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>How do you scrap a car in Australia?</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://www.cashforcarsmelbournevic.com/how-the-cash-for-scrap-car-industry-works-in-australia/</v>
+      </c>
+      <c r="D27" t="str">
+        <v>A step-by-step guide</v>
+      </c>
+      <c r="E27" t="str">
+        <v>How do you scrap a car in Australia?</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>How much do you get for scrapping a car Melbourne?</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://buynsellcars.com.au/blog/how-much-will-i-get-for-my-scrap-car-in-melbourne/</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Buy N Sell Car for Cash in Melbourne can offer you up to $20,000 for your scrap car.</v>
+      </c>
+      <c r="E28" t="str">
+        <v>How much do you get for scrapping a car Melbourne?</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>What is the highest paying scrap metal?</v>
+      </c>
+      <c r="B29" t="str">
+        <v>30</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://www.h2horganizing.com/blog/2022/2/1/what-is-the-highest-paying-scrap-metal</v>
+      </c>
+      <c r="D29" t="str">
+        <v>What Is the Highest Paying Scrap Metal?</v>
+      </c>
+      <c r="E29" t="str">
+        <v>What is the highest paying scrap metal?</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>What should I take off my car before scrapping it?</v>
+      </c>
+      <c r="B30" t="str">
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <v>https://www.junkcartraders.com/blog/things-to-remove-before-junking-your-car/</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Especially valuable could be its motor, alternator, battery (even if dead), wheels, radio, GPS and even its gasoline, especially if the gas tank is anywhere near full. However, if you remove its wheels due to their value, make sure to replace them with ones that will at least allow the car to be towed to the junk yard.Sep 29, 2017</v>
+      </c>
+      <c r="E30" t="str">
+        <v>What should I take off my car before scrapping it?</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>What is the value of a scrap?</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <v>https://www.investopedia.com/terms/s/scrap-value.asp</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Key Takeaways Scrap value is also known as residual value, salvage value, or break-up value. Scrap value is the estimated cost that a fixed asset can be sold for after factoring in full depreciation.</v>
+      </c>
+      <c r="E31" t="str">
+        <v>What is the value of a scrap?</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>How can I junk my car without a title in Massachusetts?</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <v>https://www.mass.gov/service-details/junk-vehicles</v>
+      </c>
+      <c r="D32" t="str">
+        <v>If you want to junk or scrap a vehicle, you must surrender its Certificate of Title or other ownership documents to ensure that it is not registered or titled again.</v>
+      </c>
+      <c r="E32" t="str">
+        <v>How can I junk my car without a title in Massachusetts?</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>How much does pull a part pay for cars Reddit?</v>
+      </c>
+      <c r="B33" t="str">
+        <v>40</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/</v>
+      </c>
+      <c r="D33" t="str">
+        <v>The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+      <c r="E33" t="str">
+        <v>How much does pull a part pay for cars Reddit?</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>How do I scrap a car in Ohio?</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <v>https://www.clevelandscrapcars.com/scrapping-car-title-required/</v>
+      </c>
+      <c r="D34" t="str">
+        <v>To summarize, when scrapping a car with a junk car buyer or scrap car buyer in Ohio you must have either the certificate of title or salvage certificate of title. In order to receive cash for cars, sell a car for cash or scrap a car for cash, you must have one of the two types of titles listed above.May 24, 2014</v>
+      </c>
+      <c r="E34" t="str">
+        <v>How do I scrap a car in Ohio?</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Can I scrap a car without a title?</v>
+      </c>
+      <c r="B35" t="str">
+        <v>210</v>
+      </c>
+      <c r="C35" t="str">
+        <v>https://getjerry.com/questions/how-can-i-scrap-a-car-without-a-title</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Answer provided by. In most states, you can scrap a car without a title as long as you can prove that you are the owner of it. Typically, you can do this by providing registration for the vehicle and your driver's license.</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Can I scrap a car without a title?</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>How much is copper worth per pound in Texas?</v>
+      </c>
+      <c r="B36" t="str">
+        <v>40</v>
+      </c>
+      <c r="C36" t="str">
+        <v>https://astrocityscrap.com/pricing/</v>
+      </c>
+      <c r="E36" t="str">
+        <v>How much is copper worth per pound in Texas?</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Is it worth scrapping a car?</v>
+      </c>
+      <c r="B37" t="str">
+        <v>10</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://www.car.co.uk/media/blogs/scrapping-your-car/how-much-is-a-scrap-car-worth</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Even if you do remove parts, there's no sure way of knowing you'll sell the components for a fair price. Your car will be worth more if it's complete than if it has parts missing. Vehicles that contain a full complement of original components usually command the highest value when scrapped.</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Is it worth scrapping a car?</v>
+      </c>
+      <c r="F37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>What are the latest scrap prices?</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
+        <v>https://www.scrapmetalbuyers.com/current-prices</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Current Prices</v>
+      </c>
+      <c r="E38" t="str">
+        <v>What are the latest scrap prices?</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>How much is the metal in a car worth?</v>
+      </c>
+      <c r="B39" t="str">
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/</v>
+      </c>
+      <c r="D39" t="str">
+        <v>According to current scrap prices as of September 2021, the value of scrap steel is $208 per ton. That equates to roughly $0.10 per pound. Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound.2 Feb 2022</v>
+      </c>
+      <c r="E39" t="str">
+        <v>How much is the metal in a car worth?</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>What is scrap value of a car UK?</v>
+      </c>
+      <c r="B40" t="str">
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://nationalscrapcar.co.uk/prices/scrap-value/</v>
+      </c>
+      <c r="E40" t="str">
+        <v>What is scrap value of a car UK?</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Are car scrap prices going up?</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://www.autoexpress.co.uk/news/357064/scrap-car-prices-record-highs-says-leading-recycler</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Rebecca Currier, CarTakeBack Marketing Manager said: “Although 2021 was another unsettled year due to Covid, we were pleased to see scrap prices continue to steadily rise.11 Jan 2022</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Are car scrap prices going up?</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>What is the scrap value of a car in India?</v>
+      </c>
+      <c r="B42" t="str">
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://www.bankbazaar.com/insurance/motor-insurance-guide/rto-rules-for-car-scrapping-in-india.html</v>
+      </c>
+      <c r="D42" t="str">
+        <v>The current rate is an average of Rs. 15 per kg for metal parts. If the car is in good working condition, the scrap dealer will sell the spare parts of the vehicle. Only the metallic body of the car will be scrapped.</v>
+      </c>
+      <c r="E42" t="str">
+        <v>What is the scrap value of a car in India?</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>How do I scrap my car in Scotland?</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://www.gov.uk/scrapped-and-written-off-vehicles</v>
+      </c>
+      <c r="D43" t="str">
+        <v>How to scrap your vehicle</v>
+      </c>
+      <c r="E43" t="str">
+        <v>How do I scrap my car in Scotland?</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>What is the best thing to scrap for money?</v>
+      </c>
+      <c r="B44" t="str">
+        <v>70</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://langleyrecyclingkc.com/most-profitable-items-to-scrap/</v>
+      </c>
+      <c r="D44" t="str">
+        <v>What Are The Most Valuable Things To Scrap?</v>
+      </c>
+      <c r="E44" t="str">
+        <v>What is the best thing to scrap for money?</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>How much will I get to scrap my car UK?</v>
+      </c>
+      <c r="B45" t="str">
+        <v>0</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://www.car.co.uk/media/blogs/scrapping-your-car/how-much-is-a-scrap-car-worth</v>
+      </c>
+      <c r="D45" t="str">
+        <v>If you've decided to dispose of your vehicle, you might be asking how much is a scrap car worth? Average payments for scrapped vehicles vary from £150 to £300 but there are several deciding factors that can affect how much you receive.</v>
+      </c>
+      <c r="E45" t="str">
+        <v>How much will I get to scrap my car UK?</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>What parts on a car are worth the most in scrap?</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://sellmax.com/blog/scrap-a-car-for-the-most-money/</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Most Valuable Parts on a Car to Scrap.</v>
+      </c>
+      <c r="E46" t="str">
+        <v>What parts on a car are worth the most in scrap?</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>How do you make money stripping cars?</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://www.junkcarmedics.com/blog/how-to-make-money-buying-junk-cars/</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Ways to Make Money Buying Junk Cars</v>
+      </c>
+      <c r="E47" t="str">
+        <v>How do you make money stripping cars?</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>How do I scrap my car in Malaysia?</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://www.thanam.com.my/get-rid-of-your-scrap-car-in-an-environment-friendly-way/</v>
+      </c>
+      <c r="D48" t="str">
+        <v>The process is simple and all you have to do is visit an online valuation website, give in the particulars and the ScrapCar and you get an instant quote. Enter your post code and the registration number to get a local price. Some scrap car dealers also offer collection and delivery.</v>
+      </c>
+      <c r="E48" t="str">
+        <v>How do I scrap my car in Malaysia?</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>What is the price of scrap metal in Australia?</v>
+      </c>
+      <c r="B49" t="str">
+        <v>10</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://www.southerncrossmetalrecyclers.com.au/scrap-metal-prices/</v>
+      </c>
+      <c r="E49" t="str">
+        <v>What is the price of scrap metal in Australia?</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>How much is copper worth in Australia?</v>
+      </c>
+      <c r="B50" t="str">
+        <v>10</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://www.recyclingdepotadelaide.com.au/scrap-metal-prices-adelaide</v>
+      </c>
+      <c r="E50" t="str">
+        <v>How much is copper worth in Australia?</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Is Cast Iron worth money in scrap?</v>
+      </c>
+      <c r="B51" t="str">
+        <v>50</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://roanemetals.com/5-most-valuable-scrap-metals-in-your-house/</v>
+      </c>
+      <c r="D51" t="str">
+        <v>5—Cast Iron While it may be the least valuable household scrap metal, what it lacks in price it makes up for in weight. This is why many scrappers won't pass up on cast iron. The cost per pound of this scrap metal can add up pretty fast, which makes it worth your while to bring it over to the recycling yard.8 Oct 2021</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Is Cast Iron worth money in scrap?</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Are all Copart cars damaged?</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="str">
+        <v>https://www.copart.com/content/us/en/landing-page/minimally-damaged-vehicles-for-sale</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Thousands of Minimally Damaged Vehicles for Auction Copart has thousands of minimally damaged vehicles available for auction. Copart's inventory is perfect for you to keep your lot stocked with new inventory. Every minimally damaged vehicle has 10 high quality pictures and information for you to review.</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Are all Copart cars damaged?</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>What can really damage a car?</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="str">
+        <v>https://www.newarkcjd.com/7-ways-you-can-damage-your-car.htm</v>
+      </c>
+      <c r="D53" t="str">
+        <v>7 Ways You Can Damage Your Car</v>
+      </c>
+      <c r="E53" t="str">
+        <v>What can really damage a car?</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Can anyone bid on Copart?</v>
+      </c>
+      <c r="B54" t="str">
+        <v>30</v>
+      </c>
+      <c r="C54" t="str">
+        <v>https://www.copart.com/content/us/en/landing-page/copart-public-auctions</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Public buyers are eligible to bid on Copart auctions. 'No license required' vehicles are open to the public without restriction. View Copart's public auction inventory today. Public buyers are eligible to bid on Copart auctions.</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Can anyone bid on Copart?</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>How much is a car worth with damaged engine?</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://www.damagedcars.com/blown-engine-car-value</v>
+      </c>
+      <c r="D55" t="str">
+        <v>How Much Is My Car Worth With A Blown Engine? Without a functioning engine, you can expect to get at least $3,000 less for your car as a sales price than you would get for a functioning vehicle. So if your vehicle is worth $10,000 in good condition, you should expect to get something closer to $4,000 to $7,000 for it.</v>
+      </c>
+      <c r="E55" t="str">
+        <v>How much is a car worth with damaged engine?</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>What happens to cars once they are crushed?</v>
+      </c>
+      <c r="B56" t="str">
+        <v>0</v>
+      </c>
+      <c r="C56" t="str">
+        <v>https://auto.howstuffworks.com/car-crusher4.htm</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Once cars are crushed, they're shipped off to a recycling center where they are shredded and separated into small pieces, which are then sorted into various metals. The largest shredder in the world is used by Sturgis Iron &amp; Metal of Elkhart, Indiana. The machine is so big, it isn't measured in tons, but acres.</v>
+      </c>
+      <c r="E56" t="str">
+        <v>What happens to cars once they are crushed?</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>How much is scrap metal worth in Wisconsin?</v>
+      </c>
+      <c r="B57" t="str">
+        <v>30</v>
+      </c>
+      <c r="C57" t="str">
+        <v>https://iscrapapp.com/yards-in/wisconsin/</v>
+      </c>
+      <c r="E57" t="str">
+        <v>How much is scrap metal worth in Wisconsin?</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>How much will I get to scrap my car Ireland?</v>
+      </c>
+      <c r="B58" t="str">
+        <v>0</v>
+      </c>
+      <c r="C58" t="str">
+        <v>https://www.thesun.ie/motors/8231926/five-cars-earn-most-cash-scrap-prices/</v>
+      </c>
+      <c r="D58" t="str">
+        <v>The average scrap car value in 2020 was €100, which nearly doubled last year to an average price of €190. The car connoisseurs said there are a number of factors fuelling the price increase.19 Jan 2022</v>
+      </c>
+      <c r="E58" t="str">
+        <v>How much will I get to scrap my car Ireland?</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>What documents do I need to scrap my car?</v>
+      </c>
+      <c r="B59" t="str">
+        <v>30</v>
+      </c>
+      <c r="C59" t="str">
+        <v>https://www.jamjar.com/scrap-my-car/car-scrapping-guidance/documents-needed-to-scrap-your-car/</v>
+      </c>
+      <c r="D59" t="str">
+        <v>The vehicle registration document or V5C is the vehicle logbook this is the most important document needed for scrapping your car. It proves the car you are about to sell for scrap belongs to you and stops any unauthorised sales.</v>
+      </c>
+      <c r="E59" t="str">
+        <v>What documents do I need to scrap my car?</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Can I scrap my car without a V5?</v>
+      </c>
+      <c r="B60" t="str">
+        <v>0</v>
+      </c>
+      <c r="C60" t="str">
+        <v>https://www.car.co.uk/scrap-my-car/faqs/documentation/can-i-scrap-my-car-without-a-v5c</v>
+      </c>
+      <c r="D60" t="str">
+        <v>The DVLA have no problem if you need to scrap a vehicle without a V5, but it is your legal responsibility to make sure you provide them with the information they require to keep their records up to date.</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Can I scrap my car without a V5?</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>How much do you get for scrapping a car in Australia?</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="str">
+        <v>https://www.swiftcashforcars.com.au/blog/how-much-do-you-get-for-scrapping-a-car-in-australia/</v>
+      </c>
+      <c r="D61" t="str">
+        <v>When scrapping your car in Australia, you can expect to get $200 – $300 for smaller cars, $250 – $400 for sedans, and $450 – $600 for heavier vehicles such as trucks and SUV's currently in May 2021. The price you will get depends on the weight of recyclable metals in your car.</v>
+      </c>
+      <c r="E61" t="str">
+        <v>How much do you get for scrapping a car in Australia?</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>How do I scrap my car in Singapore?</v>
+      </c>
+      <c r="B62" t="str">
+        <v>0</v>
+      </c>
+      <c r="C62" t="str">
+        <v>https://onemotoring.lta.gov.sg/content/onemotoring/home/selling-deregistering/deregister-a-vehicle.html</v>
+      </c>
+      <c r="D62" t="str">
+        <v>There are 3 ways to deregister and dispose of your vehicle.</v>
+      </c>
+      <c r="E62" t="str">
+        <v>How do I scrap my car in Singapore?</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>How do you scrap a car in California?</v>
+      </c>
+      <c r="B63" t="str">
+        <v>0</v>
+      </c>
+      <c r="C63" t="str">
+        <v>https://getjerry.com/questions/how-do-you-junk-a-car-in-california</v>
+      </c>
+      <c r="D63" t="str">
+        <v>To junk a car in California, you should sell it to a junkyard that's equipped to handle cars....Answer provided by</v>
+      </c>
+      <c r="E63" t="str">
+        <v>How do you scrap a car in California?</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>How much is my car worth in scrap Singapore?</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="str">
+        <v>https://dollarsandsense.sg/calculate-depreciation-scrap-value-car-singapore/</v>
+      </c>
+      <c r="D64" t="str">
+        <v>If you intend to buy and own a car for ten years before deregistering it, the scrap value of the car at year 10 will be 50% of your Additional Registration Fee (ARF). This is also known as your Preferential Additional Registration Fee (PARF) rebate.4 Jan 2022</v>
+      </c>
+      <c r="E64" t="str">
+        <v>How much is my car worth in scrap Singapore?</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>What is scrap metal worth in Australia?</v>
+      </c>
+      <c r="B65" t="str">
+        <v>0</v>
+      </c>
+      <c r="C65" t="str">
+        <v>https://www.scrapsmetalprices.com/</v>
+      </c>
+      <c r="E65" t="str">
+        <v>What is scrap metal worth in Australia?</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>How much are aluminum rims worth?</v>
+      </c>
+      <c r="B66" t="str">
+        <v>30</v>
+      </c>
+      <c r="C66" t="str">
+        <v>https://www.scrapmonster.com/scrap-yards/prices/california/state/3370</v>
+      </c>
+      <c r="E66" t="str">
+        <v>How much are aluminum rims worth?</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>How much is a scrap car worth Australia?</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="str">
+        <v>https://www.swiftcashforcars.com.au/blog/how-much-do-you-get-for-scrapping-a-car-in-australia/</v>
+      </c>
+      <c r="D67" t="str">
+        <v>When scrapping your car in Australia, you can expect to get $200 – $300 for smaller cars, $250 – $400 for sedans, and $450 – $600 for heavier vehicles such as trucks and SUV's currently in May 2021. The price you will get depends on the weight of recyclable metals in your car.</v>
+      </c>
+      <c r="E67" t="str">
+        <v>How much is a scrap car worth Australia?</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Can you get money for scrapping a car?</v>
+      </c>
+      <c r="B68" t="str">
+        <v>40</v>
+      </c>
+      <c r="C68" t="str">
+        <v>https://www.scrapcarcomparison.co.uk/blog/how-much-will-i-get-for-scrapping-my-car/</v>
+      </c>
+      <c r="D68" t="str">
+        <v>The specifics of your car (make, model and age) Beyond the size of your vehicle, the make and model of your car will also affect the amount you'll receive when scrapping. Just like it affects the purchase price, having a more expensive make and model of car can mean it'll be worth more when scrapped too.Feb 21, 2022</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Can you get money for scrapping a car?</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>What is scrap car metal used for?</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="str">
+        <v>http://www.greatrecovery.org.uk/resources/uses-for-scrap-metal/</v>
+      </c>
+      <c r="D69" t="str">
+        <v>They are used in building roads and tracks, as well as for the vehicles that use them. Cars are the most recycled metal product, with millions reaching the end of their lives each year.</v>
+      </c>
+      <c r="E69" t="str">
+        <v>What is scrap car metal used for?</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>How do I cut a car for scrap?</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="str">
+        <v>https://m.youtube.com/watch?v=gLp8YJ4Ihnk</v>
+      </c>
+      <c r="E70" t="str">
+        <v>How do I cut a car for scrap?</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>How do you determine scrap value?</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="str">
+        <v>https://www.deskera.com/blog/scrap-value/</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Scrap value in Insurance Industry</v>
+      </c>
+      <c r="E71" t="str">
+        <v>How do you determine scrap value?</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>What are the most valuable parts on a scrap car?</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="str">
+        <v>https://sellmax.com/blog/scrap-a-car-for-the-most-money/</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Most Valuable Parts on a Car to Scrap.</v>
+      </c>
+      <c r="E72" t="str">
+        <v>What are the most valuable parts on a scrap car?</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>How much will I get if I scrap my car UK?</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="str">
+        <v>https://www.car.co.uk/media/blogs/scrapping-your-car/how-much-is-a-scrap-car-worth</v>
+      </c>
+      <c r="D73" t="str">
+        <v>If you've decided to dispose of your vehicle, you might be asking how much is a scrap car worth? Average payments for scrapped vehicles vary from £150 to £300 but there are several deciding factors that can affect how much you receive.</v>
+      </c>
+      <c r="E73" t="str">
+        <v>How much will I get if I scrap my car UK?</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Are car scrap yards profitable?</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="str">
+        <v>https://www.thecarexpert.co.uk/making-money-dead-car-secrets-of-scrap-yard/</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Often, the most profitable way to get money back from your old car is to scrap it; you could sell the whole thing to a scrap yard, but you probably won't get as much money as you actually could by stripping and scrapping it yourself, despite the fact it would be a little easier and less time consuming.15 Mar 2014</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Are car scrap yards profitable?</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>How much metal is in a car?</v>
+      </c>
+      <c r="B75" t="str">
+        <v>30</v>
+      </c>
+      <c r="C75" t="str">
+        <v>https://www.etf.com/sections/features-and-news/1289-cars-and-metal-metal-and-cars?nopaging=1</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Approximately 55% of a car's weight comes from steel, according to The World Steel Association. In 2007, the average car contained 2,400 pounds of steel, and the average light truck or SUV 3,000 pounds of the metal. GM alone buys 7 million tons of steel for itself and for resale to its suppliers each year.17 Nov 2008</v>
+      </c>
+      <c r="E75" t="str">
+        <v>How much metal is in a car?</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>How do I scrap my car UK?</v>
+      </c>
+      <c r="B76" t="str">
+        <v>0</v>
+      </c>
+      <c r="C76" t="str">
+        <v>https://www.gov.uk/scrapped-and-written-off-vehicles</v>
+      </c>
+      <c r="D76" t="str">
+        <v>How to scrap your vehicle</v>
+      </c>
+      <c r="E76" t="str">
+        <v>How do I scrap my car UK?</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Do you need a title to junk a car in NH?</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="str">
+        <v>https://www.trashcanwillys.com/junk-hauling-removal-services-nh-ma/buy-sell-my-junk-car-nh/</v>
+      </c>
+      <c r="D77" t="str">
+        <v>To junk your car in the state of New Hampshire you need just a few things: If its 2000 or newer you need a title. A copy of the registration. A valid ID matching the registration, title, or proof that the car is yours.</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Do you need a title to junk a car in NH?</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>What do scrap yards pay the most for?</v>
+      </c>
+      <c r="B78" t="str">
+        <v>30</v>
+      </c>
+      <c r="C78" t="str">
+        <v>https://langleyrecyclingkc.com/most-profitable-items-to-scrap/</v>
+      </c>
+      <c r="D78" t="str">
+        <v>What Are The Most Valuable Things To Scrap?</v>
+      </c>
+      <c r="E78" t="str">
+        <v>What do scrap yards pay the most for?</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>What pays the most for scrap?</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="str">
+        <v>https://langleyrecyclingkc.com/most-profitable-items-to-scrap/</v>
+      </c>
+      <c r="D79" t="str">
+        <v>What Are The Most Valuable Things To Scrap?</v>
+      </c>
+      <c r="E79" t="str">
+        <v>What pays the most for scrap?</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>What is salvage value of a car?</v>
+      </c>
+      <c r="B80" t="str">
+        <v>90</v>
+      </c>
+      <c r="C80" t="str">
+        <v>https://braunslaw.com/blog/determining-salvage-value-of-a-car-after-an-accident/</v>
+      </c>
+      <c r="D80" t="str">
+        <v>The salvage value of your vehicle is the value that would be received if the insurance company sold it to a salvage yard for its parts and frame. The insurance company would determine the ACV of your vehicle as if you were not going to buy it back and deduct a certain percentage for the salvage value.Feb 15, 2019</v>
+      </c>
+      <c r="E80" t="str">
+        <v>What is salvage value of a car?</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>How much is copper per pound in Louisiana?</v>
+      </c>
+      <c r="B81" t="str">
+        <v>50</v>
+      </c>
+      <c r="C81" t="str">
+        <v>https://forscrap.com/scrap-metal-prices</v>
+      </c>
+      <c r="E81" t="str">
+        <v>How much is copper per pound in Louisiana?</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Can you make money crushing cars?</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="str">
+        <v>https://smallbusiness.chron.com/make-money-crushing-cars-67209.html</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Car crushing businesses have been around for more decades, and the industry shows no signs of going away. Although it may appear straightforward, crushing cars requires much more than a junkyard and equipment. To make money crushing cars requires a lot more work on your part as a business owner.</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Can you make money crushing cars?</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>What happens after a car is crushed?</v>
+      </c>
+      <c r="B83" t="str">
+        <v>30</v>
+      </c>
+      <c r="C83" t="str">
+        <v>https://auto.howstuffworks.com/car-crusher4.htm</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Once cars are crushed, they're shipped off to a recycling center where they are shredded and separated into small pieces, which are then sorted into various metals. The largest shredder in the world is used by Sturgis Iron &amp; Metal of Elkhart, Indiana.</v>
+      </c>
+      <c r="E83" t="str">
+        <v>What happens after a car is crushed?</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>How do I sell my car for scrap in NSW?</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="str">
+        <v>https://www.service.nsw.gov.au/transaction/submit-notice-disposal-vehicle</v>
+      </c>
+      <c r="D84" t="str">
+        <v>What you need</v>
+      </c>
+      <c r="E84" t="str">
+        <v>How do I sell my car for scrap in NSW?</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>What are the scrap prices in New York?</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="str">
+        <v>https://www.google.com/url?q=https://rockawayrecycling.com/scrap_news/scrap-metal-prices-for-ny/&amp;sa=U&amp;ved=2ahUKEwie9feTi574AhUBmGoFHT7tBbwQFnoECAAQFg&amp;usg=AOvVaw0KKuFrkAFm7VhGTTGxAibk</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Scrap Prices</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>What happens to a car when it gets scrapped?</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="str">
+        <v>https://cardealermagazine.co.uk/publish/one-million-cars-scrapped-every-year-actually-happens-scrap-yard/89661</v>
+      </c>
+      <c r="D86" t="str">
+        <v>When you scrap your car, it has to be legally scrapped by what is called an Authorised Treatment Facility (ATF). Here the vehicle has all hazardous materials removed and parts that can be reused salvaged before it is crushed and recycled.Feb 2, 2015</v>
+      </c>
+      <c r="E86" t="str">
+        <v>What happens to a car when it gets scrapped?</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>How do you junk a car in NYC?</v>
+      </c>
+      <c r="B87" t="str">
+        <v>0</v>
+      </c>
+      <c r="C87" t="str">
+        <v>https://portal.311.nyc.gov/article/?kanumber=KA-02474</v>
+      </c>
+      <c r="D87" t="str">
+        <v>You can legally dispose of your vehicle by taking it to a motor vehicle wrecker or junk dealer. If you dispose of a vehicle improperly, you may get a summons with a fine of up to $1,000. Learn about motor vehicle disposal.</v>
+      </c>
+      <c r="E87" t="str">
+        <v>How do you junk a car in NYC?</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F87"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Keyword</v>
+      </c>
+      <c r="B1" t="str">
+        <v>MSV</v>
+      </c>
+      <c r="C1" t="str">
+        <v>URL That Owns It</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Ranking Text</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>how much per ton for scrap cars</v>
+      </c>
+      <c r="B2" t="str">
+        <v>30</v>
+      </c>
+      <c r="C2" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D2" t="str">
+        <v>If you're wondering how much a scrap car is worth per ton, you need to look at current scrap metal prices. Right now, you can expect roughly $200 per ton in your vehicle. That means you might get around $400 for the average car — more if you have a bigger, heavier vehicle.</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>car scrap value by weight</v>
+      </c>
+      <c r="B3" t="str">
+        <v>70</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>how much scrap for my car</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>how much are cars going for scrap</v>
+      </c>
+      <c r="B5" t="str">
+        <v>40</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>what is scrap price for cars</v>
+      </c>
+      <c r="B6" t="str">
+        <v>50</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>scrap cost of car</v>
+      </c>
+      <c r="B7" t="str">
+        <v>10</v>
+      </c>
+      <c r="C7" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#elementor-toc__heading-anchor-4</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value. You can also keep looking around for a better quote.</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>whole vehicle scrap price</v>
+      </c>
+      <c r="B8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>car scrap per ton</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D9" t="str">
+        <v>If you're wondering how much a scrap car is worth per ton, you need to look at current scrap metal prices. Right now, you can expect roughly $200 per ton in your vehicle. That means you might get around $400 for the average car — more if you have a bigger, heavier vehicle.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>scrap yard car prices</v>
+      </c>
+      <c r="B10" t="str">
+        <v>70</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>how much are junk cars bringing</v>
+      </c>
+      <c r="B11" t="str">
+        <v>30</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/</v>
+      </c>
+      <c r="D11" t="str">
+        <v>The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>price of car scrap</v>
+      </c>
+      <c r="B12" t="str">
+        <v>30</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>what are scrap cars worth</v>
+      </c>
+      <c r="B13" t="str">
+        <v>20</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#elementor-toc__heading-anchor-4</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value.</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>how much will a scrap yard pay for a car</v>
+      </c>
+      <c r="B14" t="str">
+        <v>20</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/</v>
+      </c>
+      <c r="D14" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>current price of scrap cars</v>
+      </c>
+      <c r="B15" t="str">
+        <v>10</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>how much is a scrap vehicle worth</v>
+      </c>
+      <c r="B16" t="str">
+        <v>40</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://www.google.com/url?q=https://www.cashautosalvage.com/going-rate-junk-cars/&amp;sa=U&amp;ved=2ahUKEwiwqLSPi574AhXcK0QIHSS7CPgQFXoECAIQAg&amp;usg=AOvVaw3rRjX_OOvhJ2sed321mhFo</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>how much do i get for scrapping my car</v>
+      </c>
+      <c r="B17" t="str">
+        <v>30</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D17" t="str">
+        <v>How Much Can I Get For Selling My Car As Scrap? Since average scrap steel prices are around $200 per ton, you can expect between $400 and $600 for your non-working, non-running vehicle, depending on whether it's a car, truck, van or SUV.</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>best price paid for scrap cars</v>
+      </c>
+      <c r="B18" t="str">
+        <v>10</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D18" t="str">
+        <v>How Much Can I Get For Selling My Car As Scrap? Since average scrap steel prices are around $200 per ton, you can expect between $400 and $600 for your non-working, non-running vehicle, depending on whether it's a car, truck, van or SUV.</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>what is scrap cars going for</v>
+      </c>
+      <c r="B19" t="str">
+        <v>10</v>
+      </c>
+      <c r="C19" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>average scrap car price</v>
+      </c>
+      <c r="B20" t="str">
+        <v>20</v>
+      </c>
+      <c r="C20" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>scrap price for vehicles</v>
+      </c>
+      <c r="B21" t="str">
+        <v>30</v>
+      </c>
+      <c r="C21" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>how much is a truck worth in scrap metal</v>
+      </c>
+      <c r="B22" t="str">
+        <v>40</v>
+      </c>
+      <c r="C22" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>scrap price for cars</v>
+      </c>
+      <c r="B23" t="str">
+        <v>260</v>
+      </c>
+      <c r="C23" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>scrap value for a car</v>
+      </c>
+      <c r="B24" t="str">
+        <v>50</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#elementor-toc__heading-anchor-4</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value. You can also keep looking around for a better quote.</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>how much is a truck worth in scrap</v>
+      </c>
+      <c r="B25" t="str">
+        <v>30</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>how much you get to scrap your car</v>
+      </c>
+      <c r="B26" t="str">
+        <v>20</v>
+      </c>
+      <c r="C26" t="str">
+        <v>https://www.thedrive.com/cars-101/37818/scrap-car#:~:text=How%20Much%20Money%20Should%20I,your%20car%20from%20the%20scrapyard.</v>
+      </c>
+      <c r="D26" t="str">
+        <v>How Much Money Should I Expect For My Scrap Car? Every car will be different, depending on condition, completeness, and what the car is, but you can expect to get $200-500 out of your car from the scrapyard.</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>current junk car prices</v>
+      </c>
+      <c r="B27" t="str">
+        <v>50</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://www.cashautosalvage.com/going-rate-junk-cars/#:~:text=Current%20junk%20car%20prices%20in,junk%20a%20car%20for%20%24500.</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Current junk car prices in 2022 range from $50 and $15,000, but heavily depend on multiple factors. In most cases, the average price for junk vehicles falls within the $100 – $500 range. In fact, we find it very common for people to look for buyers that will junk a car for $500.</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>how much is a car for scrap</v>
+      </c>
+      <c r="B28" t="str">
+        <v>40</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>scrap yard price for car</v>
+      </c>
+      <c r="B29" t="str">
+        <v>10</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>average price to scrap a car</v>
+      </c>
+      <c r="B30" t="str">
+        <v>10</v>
+      </c>
+      <c r="C30" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>scrap prices on cars</v>
+      </c>
+      <c r="B31" t="str">
+        <v>40</v>
+      </c>
+      <c r="C31" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>how much can you get for junk car</v>
+      </c>
+      <c r="B32" t="str">
+        <v>50</v>
+      </c>
+      <c r="C32" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/#:~:text=How%20much%20do%20junk%20yards,year%2C%20completeness%2C%20and%20damage.</v>
+      </c>
+      <c r="D32" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>how much for scrapping my car</v>
+      </c>
+      <c r="B33" t="str">
+        <v>10</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#:~:text=Prices%20around%20%24150%20are%20fairly,around%20for%20a%20better%20quote.</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value. You can also keep looking around for a better quote.</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>scrap price of a car</v>
+      </c>
+      <c r="B34" t="str">
+        <v>40</v>
+      </c>
+      <c r="C34" t="str">
+        <v>https://www.junkcarmedics.com/prices/</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>what's scrap price on cars</v>
+      </c>
+      <c r="B35" t="str">
+        <v>30</v>
+      </c>
+      <c r="C35" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>how much is a car shell worth in scrap</v>
+      </c>
+      <c r="B36" t="str">
+        <v>90</v>
+      </c>
+      <c r="C36" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>scrap car per ton</v>
+      </c>
+      <c r="B37" t="str">
+        <v>10</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D37" t="str">
+        <v>If you're wondering how much a scrap car is worth per ton, you need to look at current scrap metal prices. Right now, you can expect roughly $200 per ton in your vehicle. That means you might get around $400 for the average car — more if you have a bigger, heavier vehicle.</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>car scrap price per pound</v>
+      </c>
+      <c r="B38" t="str">
+        <v>20</v>
+      </c>
+      <c r="C38" t="str">
+        <v>https://www.cartakebackaust.com/scrap-car-price-update#:~:text=Current%20average%20scrap%20car%20value%3A%20%24579</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Current average scrap car value: $579.</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>how much can you get for scrapping a car</v>
+      </c>
+      <c r="B39" t="str">
+        <v>320</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/</v>
+      </c>
+      <c r="D39" t="str">
+        <v>How to Scrap a Car Step Two: Get an Offer. How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>average price for a scrap car</v>
+      </c>
+      <c r="B40" t="str">
+        <v>10</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>how much do you get from scrapping a car</v>
+      </c>
+      <c r="B41" t="str">
+        <v>40</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D41" t="str">
+        <v>How Much Can I Get For Selling My Car As Scrap? Since average scrap steel prices are around $200 per ton, you can expect between $400 and $600 for your non-working, non-running vehicle, depending on whether it's a car, truck, van or SUV.</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>how much is car scrap metal worth</v>
+      </c>
+      <c r="B42" t="str">
+        <v>30</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#elementor-toc__heading-anchor-4</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value.</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>what are scrap prices for cars</v>
+      </c>
+      <c r="B43" t="str">
+        <v>10</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>scrap metal price for a car</v>
+      </c>
+      <c r="B44" t="str">
+        <v>10</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>what scrap value of car</v>
+      </c>
+      <c r="B45" t="str">
+        <v>0</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#elementor-toc__heading-anchor-4</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value. You can also keep looking around for a better quote.</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>scrap vehicle prices near me</v>
+      </c>
+      <c r="B46" t="str">
+        <v>110</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://www.google.com/search?q=Green+Monkey+Metals+%26+Junk+Cars+Tampa,+FL&amp;ludocid=5041155835460675043&amp;gsas=1&amp;lsig=AB86z5X6s9HZI0i3fe4hZ7O9nrVc&amp;sa=X&amp;ved=2ahUKEwjd7_uPi574AhVyRN8KHZB_BkkQvS56BAgAEAQ</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>scrap prices for a car</v>
+      </c>
+      <c r="B47" t="str">
+        <v>50</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>average scrap price for a car</v>
+      </c>
+      <c r="B48" t="str">
+        <v>10</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>how much do you get for crushing a car</v>
+      </c>
+      <c r="B49" t="str">
+        <v>40</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/#:~:text=How%20much%20do%20junk%20yards,year%2C%20completeness%2C%20and%20damage.</v>
+      </c>
+      <c r="D49" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>current price for scrap cars</v>
+      </c>
+      <c r="B50" t="str">
+        <v>40</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>how much for a junk car</v>
+      </c>
+      <c r="B51" t="str">
+        <v>110</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://www.cashautosalvage.com/going-rate-junk-cars/#elementor-toc__heading-anchor-0</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Current junk car prices in 2022 range from $50 and $15,000, but heavily depend on multiple factors. In most cases, the average price for junk vehicles falls within the $100 – $500 range. In fact, we find it very common for people to look for buyers that will junk a car for $500.</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>how much can i get to junk my car</v>
+      </c>
+      <c r="B52" t="str">
+        <v>110</v>
+      </c>
+      <c r="C52" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/</v>
+      </c>
+      <c r="D52" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>what is a car worth for scrap</v>
+      </c>
+      <c r="B53" t="str">
+        <v>10</v>
+      </c>
+      <c r="C53" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>how much is the scrap value of my car</v>
+      </c>
+      <c r="B54" t="str">
+        <v>40</v>
+      </c>
+      <c r="C54" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#elementor-toc__heading-anchor-4</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value. You can also keep looking around for a better quote.</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>car metal scrap prices</v>
+      </c>
+      <c r="B55" t="str">
+        <v>0</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>how much could i scrap my car for</v>
+      </c>
+      <c r="B56" t="str">
+        <v>40</v>
+      </c>
+      <c r="C56" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D56" t="str">
+        <v>How Much Can I Get For Selling My Car As Scrap? Since average scrap steel prices are around $200 per ton, you can expect between $400 and $600 for your non-working, non-running vehicle, depending on whether it's a car, truck, van or SUV.</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>price of scrapping a car</v>
+      </c>
+      <c r="B57" t="str">
+        <v>70</v>
+      </c>
+      <c r="C57" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>how much is a car scrap metal worth</v>
+      </c>
+      <c r="B58" t="str">
+        <v>0</v>
+      </c>
+      <c r="C58" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>how much does a scrap yard pay for a car</v>
+      </c>
+      <c r="B59" t="str">
+        <v>30</v>
+      </c>
+      <c r="C59" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/</v>
+      </c>
+      <c r="D59" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>scrap price on cars</v>
+      </c>
+      <c r="B60" t="str">
+        <v>10</v>
+      </c>
+      <c r="C60" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>what is the price of scrap cars</v>
+      </c>
+      <c r="B61" t="str">
+        <v>10</v>
+      </c>
+      <c r="C61" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>price of junk car</v>
+      </c>
+      <c r="B62" t="str">
+        <v>20</v>
+      </c>
+      <c r="C62" t="str">
+        <v>https://www.cashautosalvage.com/going-rate-junk-cars/#elementor-toc__heading-anchor-0</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Current junk car prices in 2022 range from $50 and $15,000, but heavily depend on multiple factors. In most cases, the average price for junk vehicles falls within the $100 – $500 range. In fact, we find it very common for people to look for buyers that will junk a car for $500.</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>how to sell my car for scrap metal</v>
+      </c>
+      <c r="B63" t="str">
+        <v>30</v>
+      </c>
+      <c r="C63" t="str">
+        <v>https://carbrain.com/sell-your-scrap-car-amp</v>
+      </c>
+      <c r="D63" t="str">
+        <v>You can also sell your vehicle directly to a junkyard or scrap yard. These yards will typically offer you the scrap metal value of your car, which is what most people expect for a junk car. However, you must confirm that a local junkyard or scrap yard will accept vehicles in your area before completing the sale.</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>whole car scrap prices</v>
+      </c>
+      <c r="B64" t="str">
+        <v>40</v>
+      </c>
+      <c r="C64" t="str">
+        <v>https://www.pjgreco.com/todays-prices/2860030</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>how much does scrapping a car pay</v>
+      </c>
+      <c r="B65" t="str">
+        <v>40</v>
+      </c>
+      <c r="C65" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D65" t="str">
+        <v>How Much Can I Get For Selling My Car As Scrap? Since average scrap steel prices are around $200 per ton, you can expect between $400 and $600 for your non-working, non-running vehicle, depending on whether it's a car, truck, van or SUV.</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>how much do scrap yards pay for cars</v>
+      </c>
+      <c r="B66" t="str">
+        <v>140</v>
+      </c>
+      <c r="C66" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/#:~:text=How%20much%20do%20junk%20yards,year%2C%20completeness%2C%20and%20damage.</v>
+      </c>
+      <c r="D66" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>scrap car body prices</v>
+      </c>
+      <c r="B67" t="str">
+        <v>30</v>
+      </c>
+      <c r="C67" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>selling your car for scrap metal</v>
+      </c>
+      <c r="B68" t="str">
+        <v>0</v>
+      </c>
+      <c r="C68" t="str">
+        <v>https://carbrain.com/sell-your-scrap-car-amp</v>
+      </c>
+      <c r="D68" t="str">
+        <v>You can also sell your vehicle directly to a junkyard or scrap yard. These yards will typically offer you the scrap metal value of your car, which is what most people expect for a junk car. However, you must confirm that a local junkyard or scrap yard will accept vehicles in your area before completing the sale.</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>scrap metal prices for a car</v>
+      </c>
+      <c r="B69" t="str">
+        <v>20</v>
+      </c>
+      <c r="C69" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>[car scrap prices]</v>
+      </c>
+      <c r="B70" t="str">
+        <v>0</v>
+      </c>
+      <c r="C70" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>scrap metal prices cars</v>
+      </c>
+      <c r="B71" t="str">
+        <v>320</v>
+      </c>
+      <c r="C71" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>whats my car worth for scrap</v>
+      </c>
+      <c r="B72" t="str">
+        <v>30</v>
+      </c>
+      <c r="C72" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>how much is a junk car worth for scrap metal</v>
+      </c>
+      <c r="B73" t="str">
+        <v>50</v>
+      </c>
+      <c r="C73" t="str">
+        <v>https://www.junkcarmedics.com/prices/#:~:text=According%20to%20data%20from%20Junk,car%20is%20worth%20is%20%24482.72.</v>
+      </c>
+      <c r="D73" t="str">
+        <v>According to data from Junk Car Medics, the current average value of how much a junk car is worth is $482.72.</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>average scrap price for car</v>
+      </c>
+      <c r="B74" t="str">
+        <v>40</v>
+      </c>
+      <c r="C74" t="str">
+        <v>https://www.cartakebackaust.com/blog/latest-news/scrap-car-price-update-july-2021#:~:text=July%20Average%20Scrap%20Car%20Price,55%25%20compared%20to%20July%202020.</v>
+      </c>
+      <c r="D74" t="str">
+        <v>July Average Scrap Car Price $500 The $1 increase to the average prices for scrap cars means that were finally at that $500 mark! Plus prices are also up by a considerable 55% compared to July 2020.</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>how much will scrapyard pay for car</v>
+      </c>
+      <c r="B75" t="str">
+        <v>30</v>
+      </c>
+      <c r="C75" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/#:~:text=How%20much%20do%20junk%20yards,year%2C%20completeness%2C%20and%20damage.</v>
+      </c>
+      <c r="D75" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>how much for scrapped car</v>
+      </c>
+      <c r="B76" t="str">
+        <v>10</v>
+      </c>
+      <c r="C76" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>how much are cars worth for scrap</v>
+      </c>
+      <c r="B77" t="str">
+        <v>40</v>
+      </c>
+      <c r="C77" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#:~:text=Prices%20around%20%24150%20are%20fairly,around%20for%20a%20better%20quote.</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value. You can also keep looking around for a better quote.</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>how much are scrap cars going for</v>
+      </c>
+      <c r="B78" t="str">
+        <v>40</v>
+      </c>
+      <c r="C78" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>can i sell my car for scrap metal</v>
+      </c>
+      <c r="B79" t="str">
+        <v>30</v>
+      </c>
+      <c r="C79" t="str">
+        <v>https://www.metalmenrecycling.com.au/cars-for-scrap/#:~:text=Selling%20scrap%20cars%20isn't,condition%20%E2%80%93%20it's%20getting%20recycled%20anyway!</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Selling scrap cars isn't just convenient – it's profitable. Often, you'll find that you can get more money by selling your old car or caravan to a scrap dealer, rather than a car dealership. When you sell broken cars, it doesn't matter whether it's road safe or in terrible condition – it's getting recycled anyway!</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>price of scrap metal cars</v>
+      </c>
+      <c r="B80" t="str">
+        <v>30</v>
+      </c>
+      <c r="C80" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>price to scrap a car</v>
+      </c>
+      <c r="B81" t="str">
+        <v>50</v>
+      </c>
+      <c r="C81" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>what's the price of scrap cars</v>
+      </c>
+      <c r="B82" t="str">
+        <v>30</v>
+      </c>
+      <c r="C82" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>how much is a car worth for scrap metal</v>
+      </c>
+      <c r="B83" t="str">
+        <v>20</v>
+      </c>
+      <c r="C83" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>how much is junk car worth</v>
+      </c>
+      <c r="B84" t="str">
+        <v>90</v>
+      </c>
+      <c r="C84" t="str">
+        <v>https://www.junkcarmedics.com/prices/</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>how much is a scrap truck worth</v>
+      </c>
+      <c r="B85" t="str">
+        <v>50</v>
+      </c>
+      <c r="C85" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D85" t="str">
+        <v>So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles. For smaller cars, that figure could be as low as $100. For larger SUVs or trucks, you might see $250 – $450.</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>current car scrap prices</v>
+      </c>
+      <c r="B86" t="str">
+        <v>50</v>
+      </c>
+      <c r="C86" t="str">
+        <v>https://www.cartakebackaust.com/scrap-car-price-update#:~:text=Current%20average%20scrap%20car%20value%3A%20%24579</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Current average scrap car value: $579.</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>car body scrap price</v>
+      </c>
+      <c r="B87" t="str">
+        <v>90</v>
+      </c>
+      <c r="C87" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>price of car scrap metal per pound</v>
+      </c>
+      <c r="B88" t="str">
+        <v>20</v>
+      </c>
+      <c r="C88" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>what is the average scrap value of a car</v>
+      </c>
+      <c r="B89" t="str">
+        <v>40</v>
+      </c>
+      <c r="C89" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>going rate for scrap cars</v>
+      </c>
+      <c r="B90" t="str">
+        <v>40</v>
+      </c>
+      <c r="C90" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>how much is a car worth at the scrap yard</v>
+      </c>
+      <c r="B91" t="str">
+        <v>0</v>
+      </c>
+      <c r="C91" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#elementor-toc__heading-anchor-4</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value. You can also keep looking around for a better quote.</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>how much is a car worth in scrap</v>
+      </c>
+      <c r="B92" t="str">
+        <v>40</v>
+      </c>
+      <c r="C92" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>how much would i get if i scrapped my car</v>
+      </c>
+      <c r="B93" t="str">
+        <v>30</v>
+      </c>
+      <c r="C93" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=So%2C%20you%20can%20take%20your,you%20might%20see%20%24250%20%E2%80%93%20%24450.</v>
+      </c>
+      <c r="D93" t="str">
+        <v>So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles. For smaller cars, that figure could be as low as $100. For larger SUVs or trucks, you might see $250 – $450.</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>what is a junk car worth in scrap</v>
+      </c>
+      <c r="B94" t="str">
+        <v>40</v>
+      </c>
+      <c r="C94" t="str">
+        <v>https://www.junkcarmedics.com/prices/#:~:text=In%202021%20prices%20to%20junk,posted%20an%20average%20above%20%24700.</v>
+      </c>
+      <c r="D94" t="str">
+        <v>In 2021 prices to junk cars were the highest in New Jersey at $809 on average, New York at $762, Florida at $723, and Massachusetts at $712. No other state posted an average above $700.</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>current scrap price for cars</v>
+      </c>
+      <c r="B95" t="str">
+        <v>50</v>
+      </c>
+      <c r="C95" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>whole car scrap price</v>
+      </c>
+      <c r="B96" t="str">
+        <v>40</v>
+      </c>
+      <c r="C96" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>how much do you get for a car at a scrap yard</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/</v>
+      </c>
+      <c r="D97" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>price of scrap for cars</v>
+      </c>
+      <c r="B98" t="str">
+        <v>30</v>
+      </c>
+      <c r="C98" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>how much can i get for a scrap car</v>
+      </c>
+      <c r="B99" t="str">
+        <v>40</v>
+      </c>
+      <c r="C99" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>how much does scrap yard pay for cars</v>
+      </c>
+      <c r="B100" t="str">
+        <v>0</v>
+      </c>
+      <c r="C100" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/#:~:text=How%20much%20do%20junk%20yards,year%2C%20completeness%2C%20and%20damage.</v>
+      </c>
+      <c r="D100" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>how much is scrap vehicle worth</v>
+      </c>
+      <c r="B101" t="str">
+        <v>30</v>
+      </c>
+      <c r="C101" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>scrap car price per pound</v>
+      </c>
+      <c r="B102" t="str">
+        <v>20</v>
+      </c>
+      <c r="C102" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>scrap car prices per pound</v>
+      </c>
+      <c r="B103" t="str">
+        <v>30</v>
+      </c>
+      <c r="C103" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>scrap car body price</v>
+      </c>
+      <c r="B104" t="str">
+        <v>10</v>
+      </c>
+      <c r="C104" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>how much can i scrap my truck for</v>
+      </c>
+      <c r="B105" t="str">
+        <v>30</v>
+      </c>
+      <c r="C105" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>how much is a scrapped car worth</v>
+      </c>
+      <c r="B106" t="str">
+        <v>30</v>
+      </c>
+      <c r="C106" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>how much junk car worth</v>
+      </c>
+      <c r="B107" t="str">
+        <v>40</v>
+      </c>
+      <c r="C107" t="str">
+        <v>https://www.cashautosalvage.com/going-rate-junk-cars/#:~:text=Current%20junk%20car%20prices%20in,junk%20a%20car%20for%20%24500.</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Current junk car prices in 2022 range from $50 and $15,000, but heavily depend on multiple factors. In most cases, the average price for junk vehicles falls within the $100 – $500 range. In fact, we find it very common for people to look for buyers that will junk a car for $500.</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>how much can you get for a scrapped car</v>
+      </c>
+      <c r="B108" t="str">
+        <v>0</v>
+      </c>
+      <c r="C108" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=So%2C%20you%20can%20take%20your,you%20might%20see%20%24250%20%E2%80%93%20%24450.</v>
+      </c>
+      <c r="D108" t="str">
+        <v>So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles. For smaller cars, that figure could be as low as $100. For larger SUVs or trucks, you might see $250 – $450.</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>how much is scrap cars going for</v>
+      </c>
+      <c r="B109" t="str">
+        <v>50</v>
+      </c>
+      <c r="C109" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>how much is scrapping a car worth</v>
+      </c>
+      <c r="B110" t="str">
+        <v>70</v>
+      </c>
+      <c r="C110" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>price to scrap my car</v>
+      </c>
+      <c r="B111" t="str">
+        <v>10</v>
+      </c>
+      <c r="C111" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>scrap a car price</v>
+      </c>
+      <c r="B112" t="str">
+        <v>210</v>
+      </c>
+      <c r="C112" t="str">
+        <v>https://www.junkcarmedics.com/prices/</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>scrap metal price for car</v>
+      </c>
+      <c r="B113" t="str">
+        <v>10</v>
+      </c>
+      <c r="C113" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>how much to scrap a truck</v>
+      </c>
+      <c r="B114" t="str">
+        <v>30</v>
+      </c>
+      <c r="C114" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>vehicle scrap price</v>
+      </c>
+      <c r="B115" t="str">
+        <v>50</v>
+      </c>
+      <c r="C115" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>junk car price per pound</v>
+      </c>
+      <c r="B116" t="str">
+        <v>30</v>
+      </c>
+      <c r="C116" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>how much do you get for scrapping a van</v>
+      </c>
+      <c r="B117" t="str">
+        <v>40</v>
+      </c>
+      <c r="C117" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Since average scrap steel prices are around $200 per ton, you can expect between $400 and $600 for your non-working, non-running vehicle, depending on whether it's a car, truck, van or SUV.</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>how much will a scrapyard pay for a car</v>
+      </c>
+      <c r="B118" t="str">
+        <v>30</v>
+      </c>
+      <c r="C118" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/#:~:text=How%20much%20do%20junk%20yards,year%2C%20completeness%2C%20and%20damage.</v>
+      </c>
+      <c r="D118" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>average scrap value of car</v>
+      </c>
+      <c r="B119" t="str">
+        <v>20</v>
+      </c>
+      <c r="C119" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>scrap prices for car</v>
+      </c>
+      <c r="B120" t="str">
+        <v>30</v>
+      </c>
+      <c r="C120" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>junk price for cars</v>
+      </c>
+      <c r="B121" t="str">
+        <v>110</v>
+      </c>
+      <c r="C121" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/whats-your-junk-car-worth/#:~:text=How%20Much%20is%20Your%20Junk,your%20needs%2C%20and%20your%20expectations.</v>
+      </c>
+      <c r="D121" t="str">
+        <v>How Much is Your Junk Car Worth? Junk yards pay around $250 to $500 cash for junk cars. Prices may vary as scrap metal prices change. There are also many places that buy junk cars, so make sure you choose one that aligns with your needs, and your expectations.</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>how much is junk cars worth</v>
+      </c>
+      <c r="B122" t="str">
+        <v>20</v>
+      </c>
+      <c r="C122" t="str">
+        <v>https://www.cashautosalvage.com/going-rate-junk-cars/#elementor-toc__heading-anchor-0</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Current junk car prices in 2022 range from $50 and $15,000, but heavily depend on multiple factors. In most cases, the average price for junk vehicles falls within the $100 – $500 range. In fact, we find it very common for people to look for buyers that will junk a car for $500.</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>scrap price of car</v>
+      </c>
+      <c r="B123" t="str">
+        <v>90</v>
+      </c>
+      <c r="C123" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>how much is a car scrap value</v>
+      </c>
+      <c r="B124" t="str">
+        <v>40</v>
+      </c>
+      <c r="C124" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#elementor-toc__heading-anchor-4</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value. You can also keep looking around for a better quote.</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>how much can i get if i scrap my car</v>
+      </c>
+      <c r="B125" t="str">
+        <v>70</v>
+      </c>
+      <c r="C125" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D125" t="str">
+        <v>How Much Can I Get For Selling My Car As Scrap? Since average scrap steel prices are around $200 per ton, you can expect between $400 and $600 for your non-working, non-running vehicle, depending on whether it's a car, truck, van or SUV.</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>junk car prices per ton</v>
+      </c>
+      <c r="B126" t="str">
+        <v>70</v>
+      </c>
+      <c r="C126" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D126" t="str">
+        <v>If you're wondering how much a scrap car is worth per ton, you need to look at current scrap metal prices. Right now, you can expect roughly $200 per ton in your vehicle. That means you might get around $400 for the average car — more if you have a bigger, heavier vehicle.</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>how much does it cost to crush a car</v>
+      </c>
+      <c r="B127" t="str">
+        <v>30</v>
+      </c>
+      <c r="C127" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/</v>
+      </c>
+      <c r="D127" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>price per ton for scrap cars</v>
+      </c>
+      <c r="B128" t="str">
+        <v>20</v>
+      </c>
+      <c r="C128" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D128" t="str">
+        <v>If you're wondering how much a scrap car is worth per ton, you need to look at current scrap metal prices. Right now, you can expect roughly $200 per ton in your vehicle. That means you might get around $400 for the average car — more if you have a bigger, heavier vehicle.</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>complete car scrap prices</v>
+      </c>
+      <c r="B129" t="str">
+        <v>70</v>
+      </c>
+      <c r="C129" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>how much is a car worth to scrap</v>
+      </c>
+      <c r="B130" t="str">
+        <v>70</v>
+      </c>
+      <c r="C130" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>how much is a junk car worth</v>
+      </c>
+      <c r="B131" t="str">
+        <v>320</v>
+      </c>
+      <c r="C131" t="str">
+        <v>https://www.cashautosalvage.com/going-rate-junk-cars/#elementor-toc__heading-anchor-0</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Current junk car prices in 2022 range from $50 and $15,000, but heavily depend on multiple factors. In most cases, the average price for junk vehicles falls within the $100 – $500 range. In fact, we find it very common for people to look for buyers that will junk a car for $500.</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>car shell scrap value</v>
+      </c>
+      <c r="B132" t="str">
+        <v>30</v>
+      </c>
+      <c r="C132" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>how much can you get to scrap a car</v>
+      </c>
+      <c r="B133" t="str">
+        <v>90</v>
+      </c>
+      <c r="C133" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D133" t="str">
+        <v>So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles. For smaller cars, that figure could be as low as $100. For larger SUVs or trucks, you might see $250 – $450.</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>scrapping a car price</v>
+      </c>
+      <c r="B134" t="str">
+        <v>30</v>
+      </c>
+      <c r="C134" t="str">
+        <v>https://www.google.com/url?q=https://theautomotivedude.com/general/scrap-car-prices/&amp;sa=U&amp;ved=2ahUKEwjKiduRi574AhW6q3IEHeW8DT4QFXoECAMQAg&amp;usg=AOvVaw0ufeX6-q23gpegeM6ptRyh</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>how much are scrap vehicles worth</v>
+      </c>
+      <c r="B135" t="str">
+        <v>0</v>
+      </c>
+      <c r="C135" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>car scrap weight price</v>
+      </c>
+      <c r="B136" t="str">
+        <v>40</v>
+      </c>
+      <c r="C136" t="str">
+        <v>https://www.junkcarmedics.com/prices/</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>how much is a car worth in scrap metal</v>
+      </c>
+      <c r="B137" t="str">
+        <v>210</v>
+      </c>
+      <c r="C137" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>car scrap value per ton</v>
+      </c>
+      <c r="B138" t="str">
+        <v>110</v>
+      </c>
+      <c r="C138" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D138" t="str">
+        <v>If you're wondering how much a scrap car is worth per ton, you need to look at current scrap metal prices. Right now, you can expect roughly $200 per ton in your vehicle. That means you might get around $400 for the average car — more if you have a bigger, heavier vehicle.</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>sell a car for scrap metal</v>
+      </c>
+      <c r="B139" t="str">
+        <v>10</v>
+      </c>
+      <c r="C139" t="str">
+        <v>https://carbrain.com/sell-your-scrap-car-amp</v>
+      </c>
+      <c r="D139" t="str">
+        <v>You can also sell your vehicle directly to a junkyard or scrap yard. These yards will typically offer you the scrap metal value of your car, which is what most people expect for a junk car. However, you must confirm that a local junkyard or scrap yard will accept vehicles in your area before completing the sale.</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>how much for a car scrap metal</v>
+      </c>
+      <c r="B140" t="str">
+        <v>0</v>
+      </c>
+      <c r="C140" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#:~:text=Prices%20around%20%24150%20are%20fairly,a%20higher%20car%20scrap%20value.</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value.</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>how much can you sell a car for scrap</v>
+      </c>
+      <c r="B141" t="str">
+        <v>50</v>
+      </c>
+      <c r="C141" t="str">
+        <v>https://www.damagedcars.com/blog/selling-your-car-for-scrap-amp</v>
+      </c>
+      <c r="D141" t="str">
+        <v>How Much Can I Get For Selling My Car As Scrap? Since average scrap steel prices are around $200 per ton, you can expect between $400 and $600 for your non-working, non-running vehicle, depending on whether it's a car, truck, van or SUV.</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>how much is scrap price for a car</v>
+      </c>
+      <c r="B142" t="str">
+        <v>30</v>
+      </c>
+      <c r="C142" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>how much will i get scrap for my car</v>
+      </c>
+      <c r="B143" t="str">
+        <v>0</v>
+      </c>
+      <c r="C143" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>how much does scrap yards pay for cars</v>
+      </c>
+      <c r="B144" t="str">
+        <v>10</v>
+      </c>
+      <c r="C144" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/#:~:text=How%20much%20do%20junk%20yards,year%2C%20completeness%2C%20and%20damage.</v>
+      </c>
+      <c r="D144" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>how much do you get when you scrap a car</v>
+      </c>
+      <c r="B145" t="str">
+        <v>40</v>
+      </c>
+      <c r="C145" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=So%2C%20you%20can%20take%20your,you%20might%20see%20%24250%20%E2%80%93%20%24450.</v>
+      </c>
+      <c r="D145" t="str">
+        <v>So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles. For smaller cars, that figure could be as low as $100. For larger SUVs or trucks, you might see $250 – $450.</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>how much scrap cars are worth</v>
+      </c>
+      <c r="B146" t="str">
+        <v>40</v>
+      </c>
+      <c r="C146" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#elementor-toc__heading-anchor-4</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value.</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>how much is a crushed car worth</v>
+      </c>
+      <c r="B147" t="str">
+        <v>40</v>
+      </c>
+      <c r="C147" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>truck scrap prices</v>
+      </c>
+      <c r="B148" t="str">
+        <v>20</v>
+      </c>
+      <c r="C148" t="str">
+        <v>https://www.google.com/url?q=https://www.junkcarmedics.com/blog/scrap-car-prices-per-ton/&amp;sa=U&amp;ved=2ahUKEwie9feTi574AhUBmGoFHT7tBbwQFnoECAEQAg&amp;usg=AOvVaw3xLTZ8UHFs33uzoNdDUYr_</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>how much for a scrapped car</v>
+      </c>
+      <c r="B149" t="str">
+        <v>40</v>
+      </c>
+      <c r="C149" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>price for scrapping a car</v>
+      </c>
+      <c r="B150" t="str">
+        <v>20</v>
+      </c>
+      <c r="C150" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>money for scrapping cars</v>
+      </c>
+      <c r="B151" t="str">
+        <v>0</v>
+      </c>
+      <c r="C151" t="str">
+        <v>https://www.pullapart.com/sell-my-car/car-sales-tips/scrapping-a-car-with-pull-a-part/#:~:text=How%20much%20do%20junk%20yards,year%2C%20completeness%2C%20and%20damage.</v>
+      </c>
+      <c r="D151" t="str">
+        <v>How much do junk yards pay for cars? The prices go up and down, but you can expect about $250-$500 for your junk car, depending on the vehicle's weight. Other factors to determine junk car value include year, completeness, and damage.</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>price per pound for junk cars</v>
+      </c>
+      <c r="B152" t="str">
+        <v>20</v>
+      </c>
+      <c r="C152" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#How_Much_Is_Your_Scrap_Car_Worth</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>how much should i get for a scrap car</v>
+      </c>
+      <c r="B153" t="str">
+        <v>30</v>
+      </c>
+      <c r="C153" t="str">
+        <v>https://www.cashautosalvage.com/car-scrap-value/#elementor-toc__heading-anchor-4</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Prices around $150 are fairly common. Which means the average car is usually worth somewhere around $300 to a scrapyard. However, if your car has parts that are salvageable or can be sold at auction, negotiate further with the junkyard for a higher car scrap value. You can also keep looking around for a better quote.</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>how much can you scrap a car for</v>
+      </c>
+      <c r="B154" t="str">
+        <v>170</v>
+      </c>
+      <c r="C154" t="str">
+        <v>https://theautomotivedude.com/general/scrap-car-prices/#:~:text=Many%20scrap%20yards%20will%20even,%24300%20for%20mid%2Dsize%20vehicles.</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Many scrap yards will even price complete cars at a scrap rate. Currently, that rate is at $203 per ton or about $0.10 per pound. So, you can take your car's weight and determine its value. The scrap price for cars averages somewhere between $150 – $300 for mid-size vehicles.</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D154"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Keyword</v>
+      </c>
+      <c r="B1" t="str">
+        <v>MSV</v>
+      </c>
+      <c r="C1" t="str">
+        <v>URL That Owns It</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Title</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>scrap price for cars</v>
+      </c>
+      <c r="B2" t="str">
+        <v>260</v>
+      </c>
+      <c r="C2" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D2" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>how much can you get for junk car</v>
+      </c>
+      <c r="B3" t="str">
+        <v>50</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D3" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>how much is a car shell worth in scrap</v>
+      </c>
+      <c r="B4" t="str">
+        <v>90</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://m.youtube.com/watch?v=qYajUjB7doQ</v>
+      </c>
+      <c r="D4" t="str">
+        <v>How to Scrap a Car for $$$ - YouTube</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>scrap metal for car</v>
+      </c>
+      <c r="B5" t="str">
+        <v>10</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://m.youtube.com/watch?v=EPfgn_MuLNA</v>
+      </c>
+      <c r="D5" t="str">
+        <v>How to Scrap a Car for Cash - YouTube</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>scrap metal for car</v>
+      </c>
+      <c r="B6" t="str">
+        <v>10</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://m.youtube.com/watch?v=qYajUjB7doQ</v>
+      </c>
+      <c r="D6" t="str">
+        <v>How to Scrap a Car for $$$ - YouTube</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>scrap metal for car</v>
+      </c>
+      <c r="B7" t="str">
+        <v>10</v>
+      </c>
+      <c r="C7" t="str">
+        <v>https://m.youtube.com/watch?v=Blgsc-uR3kg</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Turning Cars into Scrap Metal | Breaking Bobby Bones - YouTube</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>how much is a junk car worth for scrap metal</v>
+      </c>
+      <c r="B8" t="str">
+        <v>50</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D8" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>how much can i junk my car for</v>
+      </c>
+      <c r="B9" t="str">
+        <v>70</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D9" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>car scrap metal</v>
+      </c>
+      <c r="B10" t="str">
+        <v>40</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://m.youtube.com/watch?v=zggFvqcoV8Q</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Is my car worth more in SCRAP METAL, then what I paid for it??</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>how much can i get for a scrap car</v>
+      </c>
+      <c r="B11" t="str">
+        <v>40</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D11" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>how much can you get for a scrapped car</v>
+      </c>
+      <c r="B12" t="str">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D12" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>junk price for cars</v>
+      </c>
+      <c r="B13" t="str">
+        <v>110</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D13" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>how much can i get if i scrap my car</v>
+      </c>
+      <c r="B14" t="str">
+        <v>70</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D14" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>how much can you get to scrap a car</v>
+      </c>
+      <c r="B15" t="str">
+        <v>90</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D15" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>scrap price cars</v>
+      </c>
+      <c r="B16" t="str">
+        <v>40</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D16" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>how much do you get when you scrap a car</v>
+      </c>
+      <c r="B17" t="str">
+        <v>40</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D17" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>how much should i get for a scrap car</v>
+      </c>
+      <c r="B18" t="str">
+        <v>30</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://m.youtube.com/watch?v=2SIqOFElPGI</v>
+      </c>
+      <c r="D18" t="str">
+        <v>how much MONEY do you get for a “junk car” (scrap value) - YouTube</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D18"/>
   </ignoredErrors>
 </worksheet>
 </file>
